--- a/data/trans_dic/P21B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.9820194580735859</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9332153233855774</v>
+        <v>0.9332153233855773</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.9937448776907521</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9428725084842154</v>
+        <v>0.9466963229642316</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9071961697249443</v>
+        <v>0.9058132223076895</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9360857716760568</v>
+        <v>0.942548869719359</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8267235882888001</v>
+        <v>0.824117128137666</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9685145016438339</v>
+        <v>0.9684383917686479</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9597823307821673</v>
+        <v>0.9588904151925924</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8983412219499087</v>
+        <v>0.89943870037453</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9209825192967106</v>
+        <v>0.9204798590184471</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9675250776929382</v>
+        <v>0.9707126207773422</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9511650329804617</v>
+        <v>0.9463188061173143</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.9311140727629336</v>
+        <v>0.9318426448099217</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8987963643737752</v>
+        <v>0.8953471820608186</v>
       </c>
     </row>
     <row r="6">
@@ -755,37 +755,37 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9926433076256328</v>
+        <v>0.9925366035376242</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9744774599279532</v>
+        <v>0.9752417872690581</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9951616074925013</v>
+        <v>0.9952334806818052</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9770074266633082</v>
+        <v>0.979878094166173</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9765076335184109</v>
+        <v>0.9784143028910351</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9965863075119202</v>
+        <v>0.9965916938828319</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9885860205389329</v>
+        <v>0.9887999022964353</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9821455168864488</v>
+        <v>0.9815963070846587</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9682060043954532</v>
+        <v>0.9675071771760038</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.8984808800331492</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9435192484951034</v>
+        <v>0.9435192484951033</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.97571944879978</v>
@@ -821,7 +821,7 @@
         <v>0.9512690393846268</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.943776112073203</v>
+        <v>0.9437761120732029</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.9784882946885297</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9547940464318162</v>
+        <v>0.9551562010946703</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9520111074335489</v>
+        <v>0.9520562766978318</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8340781978590107</v>
+        <v>0.8359638900399526</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9024857390530475</v>
+        <v>0.9077611232473275</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.946730843570843</v>
+        <v>0.9490260704269713</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9801989343894888</v>
+        <v>0.9830250045614847</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9130664426828267</v>
+        <v>0.9119574655680889</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9073797497316355</v>
+        <v>0.9128939656979518</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9591975464725498</v>
+        <v>0.960483698420599</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9762929643216851</v>
+        <v>0.9767946425753348</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8958635251566995</v>
+        <v>0.896083025316645</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.92124064076352</v>
+        <v>0.9187226659183184</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.994351521099005</v>
+        <v>0.9945431955929597</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.995086855378318</v>
+        <v>0.9949204698795953</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9411186853946045</v>
+        <v>0.9408550866044819</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9688975235998333</v>
+        <v>0.967289579354744</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9899470110738228</v>
+        <v>0.9908103602794122</v>
       </c>
       <c r="H9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9768420914721889</v>
+        <v>0.9746567343280212</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9636728012019742</v>
+        <v>0.9651556940307678</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9890739986605905</v>
+        <v>0.9893031880763264</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9960406969866473</v>
+        <v>0.9961472527011519</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9530246666404644</v>
+        <v>0.9540194129578226</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9615403354470575</v>
+        <v>0.9620822855722941</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.9143062012233292</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.8858739147272481</v>
+        <v>0.8858739147272479</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.9334219686461231</v>
@@ -969,7 +969,7 @@
         <v>0.9274017649956794</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.8928378232642178</v>
+        <v>0.8928378232642177</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8435530946143885</v>
+        <v>0.8389239576291182</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9331747101167672</v>
+        <v>0.9342269505377548</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8919776445140146</v>
+        <v>0.8910216076514388</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8428802608526405</v>
+        <v>0.8394229285190076</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9071216973447468</v>
+        <v>0.9084642647255635</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9204933025245717</v>
+        <v>0.9225665151608324</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8597845270439218</v>
+        <v>0.8530628559782112</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.83204699452759</v>
+        <v>0.8371716535988587</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8993983305945364</v>
+        <v>0.8949039042506424</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9396380576197421</v>
+        <v>0.9385329057706401</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8875627089531299</v>
+        <v>0.8889053737930328</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8560939388138586</v>
+        <v>0.8560531390783713</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9612222681236314</v>
+        <v>0.9583772868465554</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9892708976386159</v>
+        <v>0.9844852764016563</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9761273201474711</v>
+        <v>0.9757193144648809</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9444217556880878</v>
+        <v>0.9455042924047099</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9757185993739474</v>
+        <v>0.9751105693562125</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9808312061925614</v>
+        <v>0.9806449312867019</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9554442333137546</v>
+        <v>0.9495174137215308</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9206588859437941</v>
+        <v>0.9212482073148964</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9601032387469547</v>
+        <v>0.9580034817798292</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.981257579813049</v>
+        <v>0.9792392656392447</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9550787746700768</v>
+        <v>0.9550686626048934</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.922705545310472</v>
+        <v>0.9201303686394875</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.9000657999521745</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.896912202156788</v>
+        <v>0.8969122021567882</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.9466800653420038</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8760541813356416</v>
+        <v>0.8826348994945324</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9488867275120259</v>
+        <v>0.9442996126781497</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8478887097585999</v>
+        <v>0.8526270874570103</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8218069765200046</v>
+        <v>0.8180303469929722</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9235132939666113</v>
+        <v>0.9228499256192289</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.887377501794444</v>
+        <v>0.8865254492691811</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8507304623037099</v>
+        <v>0.8574131588904786</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8591297299040229</v>
+        <v>0.8612463675875527</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9198915513739211</v>
+        <v>0.920693709480968</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.921666233667882</v>
+        <v>0.9178955484528744</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8669489088406812</v>
+        <v>0.8665885834848999</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.8601540865847163</v>
+        <v>0.8581941592423096</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9647606895943543</v>
+        <v>0.9676796552329728</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9940484042384051</v>
+        <v>0.9941234766763799</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9464372634146208</v>
+        <v>0.9512085939498669</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9130395612443272</v>
+        <v>0.9137960899884474</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9788421244829754</v>
+        <v>0.9778533941652634</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9589291281002715</v>
+        <v>0.9574186735428382</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9379361317095595</v>
+        <v>0.9380758395489005</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9242433615593163</v>
+        <v>0.9253629535301336</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9667867755065095</v>
+        <v>0.9672555786946071</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9683724305745877</v>
+        <v>0.9670735862875406</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9308733663189322</v>
+        <v>0.9303990038490113</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.911445285027796</v>
+        <v>0.9127295634262422</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.9274875357121677</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.913271629275632</v>
+        <v>0.9132716292756321</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.9675758600268706</v>
@@ -1229,7 +1229,7 @@
         <v>0.9263020049848701</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9169537582730711</v>
+        <v>0.916953758273071</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.962251268524312</v>
@@ -1241,7 +1241,7 @@
         <v>0.9268046151106055</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.9153360564950369</v>
+        <v>0.9153360564950372</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.931988368735027</v>
+        <v>0.9331260916380889</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9599649641931242</v>
+        <v>0.9596991474221125</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8994514943464517</v>
+        <v>0.9003869898138395</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8880382442151928</v>
+        <v>0.8879090974725734</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9531669611558864</v>
+        <v>0.9538738590668864</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9554336022539034</v>
+        <v>0.9556531000655132</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9010666667779161</v>
+        <v>0.9049394077150957</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8984808777683891</v>
+        <v>0.9001219476372945</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9505960682506117</v>
+        <v>0.9491371145731852</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.9609933347317522</v>
+        <v>0.9626825982438107</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.911039451683741</v>
+        <v>0.9112598523075996</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9015472224517337</v>
+        <v>0.9011787809497979</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9701093363924156</v>
+        <v>0.9697315095771659</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9845211981915254</v>
+        <v>0.9849741425795124</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9479831645274227</v>
+        <v>0.9472765439784385</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9332305759652377</v>
+        <v>0.9335665715717452</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9784904187328329</v>
+        <v>0.9796091662954302</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9789026977120978</v>
+        <v>0.9786735761211153</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9424470768632232</v>
+        <v>0.9454843979578541</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9323665313864793</v>
+        <v>0.9342496428840034</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9724731139518606</v>
+        <v>0.9714765799417889</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9787632863284047</v>
+        <v>0.9788082933674455</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9404629235051378</v>
+        <v>0.9407332301545052</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9283302567887274</v>
+        <v>0.9281593558564806</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>106338</v>
+        <v>106769</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>128299</v>
+        <v>128104</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>95444</v>
+        <v>96103</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>114525</v>
+        <v>114164</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>131811</v>
+        <v>131801</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>185609</v>
+        <v>185437</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>124154</v>
+        <v>124306</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>141540</v>
+        <v>141463</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>240795</v>
+        <v>241588</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>318460</v>
+        <v>316837</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>223622</v>
+        <v>223797</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>262640</v>
+        <v>261632</v>
       </c>
     </row>
     <row r="7">
@@ -1647,37 +1647,37 @@
         <v>112781</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>140384</v>
+        <v>140368</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>101961</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>134993</v>
+        <v>135099</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>136096</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>192451</v>
+        <v>192465</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>135026</v>
+        <v>135423</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>150074</v>
+        <v>150367</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>248027</v>
+        <v>248029</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>330988</v>
+        <v>331060</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>235878</v>
+        <v>235746</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>282922</v>
+        <v>282718</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>177225</v>
+        <v>177292</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>217924</v>
+        <v>217934</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>143119</v>
+        <v>143443</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>211513</v>
+        <v>212749</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>268807</v>
+        <v>269459</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>293389</v>
+        <v>294235</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>193458</v>
+        <v>193223</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>236559</v>
+        <v>237997</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>450389</v>
+        <v>450993</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>515702</v>
+        <v>515967</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>343534</v>
+        <v>343618</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>456081</v>
+        <v>454835</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>184568</v>
+        <v>184603</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>227784</v>
+        <v>227746</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>161487</v>
+        <v>161441</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>227078</v>
+        <v>226701</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>281078</v>
+        <v>281323</v>
       </c>
       <c r="H11" s="6" t="n">
         <v>299316</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>206970</v>
+        <v>206507</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>251235</v>
+        <v>251622</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>464418</v>
+        <v>464525</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>526134</v>
+        <v>526190</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>365454</v>
+        <v>365835</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>476033</v>
+        <v>476301</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>104309</v>
+        <v>103736</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>169671</v>
+        <v>169862</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>112558</v>
+        <v>112437</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>128791</v>
+        <v>128263</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>160142</v>
+        <v>160379</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>237501</v>
+        <v>238036</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>131792</v>
+        <v>130762</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>181362</v>
+        <v>182479</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>269993</v>
+        <v>268644</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>413287</v>
+        <v>412801</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>248050</v>
+        <v>248425</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>317415</v>
+        <v>317400</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>118859</v>
+        <v>118507</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>179870</v>
+        <v>179000</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>123177</v>
+        <v>123125</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>144307</v>
+        <v>144472</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>172252</v>
+        <v>172145</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>253069</v>
+        <v>253021</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>146455</v>
+        <v>145547</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>200677</v>
+        <v>200805</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>288216</v>
+        <v>287586</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>431592</v>
+        <v>430705</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>266919</v>
+        <v>266916</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>342112</v>
+        <v>341158</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>119489</v>
+        <v>120386</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>143708</v>
+        <v>143013</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>128648</v>
+        <v>129367</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>169922</v>
+        <v>169141</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>210046</v>
+        <v>209895</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>201103</v>
+        <v>200910</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>209227</v>
+        <v>210870</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>259773</v>
+        <v>260413</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>334691</v>
+        <v>334982</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>348459</v>
+        <v>347033</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>344756</v>
+        <v>344613</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>437935</v>
+        <v>436937</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>131588</v>
+        <v>131986</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>150548</v>
+        <v>150559</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>143601</v>
+        <v>144325</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>188786</v>
+        <v>188942</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>222630</v>
+        <v>222405</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>217318</v>
+        <v>216976</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>230674</v>
+        <v>230708</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>279462</v>
+        <v>279800</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>351753</v>
+        <v>351923</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>366117</v>
+        <v>365626</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>370177</v>
+        <v>369988</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>464049</v>
+        <v>464703</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>520465</v>
+        <v>521101</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>675433</v>
+        <v>675246</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>496018</v>
+        <v>496534</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>650453</v>
+        <v>650359</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>785418</v>
+        <v>786001</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>933787</v>
+        <v>934002</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>675174</v>
+        <v>678076</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>839836</v>
+        <v>841370</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1314155</v>
+        <v>1312138</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1615378</v>
+        <v>1618217</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1185055</v>
+        <v>1185341</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1503051</v>
+        <v>1502437</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>541754</v>
+        <v>541543</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>692711</v>
+        <v>693030</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>522781</v>
+        <v>522392</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>683555</v>
+        <v>683801</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>806285</v>
+        <v>807207</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>956725</v>
+        <v>956501</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>706180</v>
+        <v>708456</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>871510</v>
+        <v>873270</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1344399</v>
+        <v>1343022</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1645248</v>
+        <v>1645324</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1223328</v>
+        <v>1223679</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1547704</v>
+        <v>1547419</v>
       </c>
     </row>
     <row r="24">
